--- a/output/APEX_13608337000128.xlsx
+++ b/output/APEX_13608337000128.xlsx
@@ -1593,10 +1593,10 @@
         <v>44165</v>
       </c>
       <c r="B110">
-        <v>1.73522272</v>
+        <v>1.74887564</v>
       </c>
       <c r="C110">
-        <v>0.0006938688966919848</v>
+        <v>0.005688852755460605</v>
       </c>
     </row>
   </sheetData>

--- a/output/APEX_13608337000128.xlsx
+++ b/output/APEX_13608337000128.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>APEX EQUITY HEDGE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:B110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40877</v>
       </c>
@@ -411,1192 +405,868 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40908</v>
       </c>
       <c r="B3">
         <v>0.0157094900000001</v>
       </c>
-      <c r="C3">
-        <v>0.0157094900000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40939</v>
       </c>
       <c r="B4">
-        <v>0.02392170000000005</v>
-      </c>
-      <c r="C4">
         <v>0.008085195699018222</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>40968</v>
       </c>
       <c r="B5">
-        <v>0.03735854999999999</v>
-      </c>
-      <c r="C5">
         <v>0.0131229272707083</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>40999</v>
       </c>
       <c r="B6">
-        <v>0.05262367000000001</v>
-      </c>
-      <c r="C6">
         <v>0.01471537492991226</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41029</v>
       </c>
       <c r="B7">
-        <v>0.0697203099999999</v>
-      </c>
-      <c r="C7">
         <v>0.0162419300337413</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41060</v>
       </c>
       <c r="B8">
-        <v>0.0849582900000001</v>
-      </c>
-      <c r="C8">
         <v>0.01424482629482871</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41090</v>
       </c>
       <c r="B9">
-        <v>0.09490073999999993</v>
-      </c>
-      <c r="C9">
         <v>0.009163900669397984</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41121</v>
       </c>
       <c r="B10">
-        <v>0.10655485</v>
-      </c>
-      <c r="C10">
         <v>0.01064398769152364</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41152</v>
       </c>
       <c r="B11">
-        <v>0.10740693</v>
-      </c>
-      <c r="C11">
         <v>0.0007700296103714255</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41182</v>
       </c>
       <c r="B12">
-        <v>0.11765954</v>
-      </c>
-      <c r="C12">
         <v>0.009258213690246597</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41213</v>
       </c>
       <c r="B13">
-        <v>0.13344325</v>
-      </c>
-      <c r="C13">
         <v>0.01412210913530965</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41243</v>
       </c>
       <c r="B14">
-        <v>0.15000908</v>
-      </c>
-      <c r="C14">
         <v>0.01461549133580364</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41274</v>
       </c>
       <c r="B15">
-        <v>0.1515177599999999</v>
-      </c>
-      <c r="C15">
         <v>0.001311885293983961</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>41305</v>
       </c>
       <c r="B16">
-        <v>0.16221887</v>
-      </c>
-      <c r="C16">
         <v>0.009293048159326744</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>41333</v>
       </c>
       <c r="B17">
-        <v>0.16913775</v>
-      </c>
-      <c r="C17">
         <v>0.005953164398371902</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>41364</v>
       </c>
       <c r="B18">
-        <v>0.17930157</v>
-      </c>
-      <c r="C18">
         <v>0.008693432403495738</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>41394</v>
       </c>
       <c r="B19">
-        <v>0.19131615</v>
-      </c>
-      <c r="C19">
         <v>0.0101878775587485</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>41425</v>
       </c>
       <c r="B20">
-        <v>0.2092892099999999</v>
-      </c>
-      <c r="C20">
         <v>0.01508672571928105</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>41455</v>
       </c>
       <c r="B21">
-        <v>0.2138844099999999</v>
-      </c>
-      <c r="C21">
         <v>0.003799918135381386</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>41486</v>
       </c>
       <c r="B22">
-        <v>0.2242456900000001</v>
-      </c>
-      <c r="C22">
         <v>0.008535639731957811</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>41517</v>
       </c>
       <c r="B23">
-        <v>0.22196993</v>
-      </c>
-      <c r="C23">
         <v>-0.001858907912512309</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>41547</v>
       </c>
       <c r="B24">
-        <v>0.22491511</v>
-      </c>
-      <c r="C24">
         <v>0.002410190240933252</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41578</v>
       </c>
       <c r="B25">
-        <v>0.23644423</v>
-      </c>
-      <c r="C25">
         <v>0.00941217877539291</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41608</v>
       </c>
       <c r="B26">
-        <v>0.25160816</v>
-      </c>
-      <c r="C26">
         <v>0.01226414393150588</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41639</v>
       </c>
       <c r="B27">
-        <v>0.2587211599999999</v>
-      </c>
-      <c r="C27">
         <v>0.005683088547457249</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41670</v>
       </c>
       <c r="B28">
-        <v>0.25334491</v>
-      </c>
-      <c r="C28">
         <v>-0.004271200144120746</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41698</v>
       </c>
       <c r="B29">
-        <v>0.26186504</v>
-      </c>
-      <c r="C29">
         <v>0.006797913273529854</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41729</v>
       </c>
       <c r="B30">
-        <v>0.26951079</v>
-      </c>
-      <c r="C30">
         <v>0.006059086952753701</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41759</v>
       </c>
       <c r="B31">
-        <v>0.28103302</v>
-      </c>
-      <c r="C31">
         <v>0.009076118210858297</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41790</v>
       </c>
       <c r="B32">
-        <v>0.2910583799999999</v>
-      </c>
-      <c r="C32">
         <v>0.007825996553937342</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41820</v>
       </c>
       <c r="B33">
-        <v>0.3030443300000001</v>
-      </c>
-      <c r="C33">
         <v>0.009283817204300382</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41851</v>
       </c>
       <c r="B34">
-        <v>0.3137337499999999</v>
-      </c>
-      <c r="C34">
         <v>0.008203420063229716</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41882</v>
       </c>
       <c r="B35">
-        <v>0.33448134</v>
-      </c>
-      <c r="C35">
         <v>0.01579284234724132</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41912</v>
       </c>
       <c r="B36">
-        <v>0.3410359599999999</v>
-      </c>
-      <c r="C36">
         <v>0.004911735970770437</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>41943</v>
       </c>
       <c r="B37">
-        <v>0.3564417499999999</v>
-      </c>
-      <c r="C37">
         <v>0.01148797680265035</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41973</v>
       </c>
       <c r="B38">
-        <v>0.3831987800000001</v>
-      </c>
-      <c r="C38">
         <v>0.01972589681790615</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42004</v>
       </c>
       <c r="B39">
-        <v>0.39784931</v>
-      </c>
-      <c r="C39">
         <v>0.01059177481345075</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42035</v>
       </c>
       <c r="B40">
-        <v>0.3956123300000001</v>
-      </c>
-      <c r="C40">
         <v>-0.001600301251355907</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42063</v>
       </c>
       <c r="B41">
-        <v>0.4016344000000001</v>
-      </c>
-      <c r="C41">
         <v>0.004315002003457469</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42094</v>
       </c>
       <c r="B42">
-        <v>0.4160548399999999</v>
-      </c>
-      <c r="C42">
         <v>0.01028830342634279</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42124</v>
       </c>
       <c r="B43">
-        <v>0.41843633</v>
-      </c>
-      <c r="C43">
         <v>0.001681778087069041</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42155</v>
       </c>
       <c r="B44">
-        <v>0.4328796500000001</v>
-      </c>
-      <c r="C44">
         <v>0.01018256490934633</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42185</v>
       </c>
       <c r="B45">
-        <v>0.4524099800000001</v>
-      </c>
-      <c r="C45">
         <v>0.01363012587972756</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42216</v>
       </c>
       <c r="B46">
-        <v>0.48210248</v>
-      </c>
-      <c r="C46">
         <v>0.02044360780280496</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42247</v>
       </c>
       <c r="B47">
-        <v>0.50294404</v>
-      </c>
-      <c r="C47">
         <v>0.01406215850876924</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42277</v>
       </c>
       <c r="B48">
-        <v>0.5300360399999999</v>
-      </c>
-      <c r="C48">
         <v>0.01802595391375972</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>42308</v>
       </c>
       <c r="B49">
-        <v>0.5202728999999999</v>
-      </c>
-      <c r="C49">
         <v>-0.006380986947209455</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>42338</v>
       </c>
       <c r="B50">
-        <v>0.5264857999999999</v>
-      </c>
-      <c r="C50">
         <v>0.00408670048647175</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>42369</v>
       </c>
       <c r="B51">
-        <v>0.5481243499999999</v>
-      </c>
-      <c r="C51">
         <v>0.01417540209021273</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>42400</v>
       </c>
       <c r="B52">
-        <v>0.5729630299999999</v>
-      </c>
-      <c r="C52">
         <v>0.01604437007918658</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>42429</v>
       </c>
       <c r="B53">
-        <v>0.57996118</v>
-      </c>
-      <c r="C53">
         <v>0.004449023827343357</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>42460</v>
       </c>
       <c r="B54">
-        <v>0.5709198200000001</v>
-      </c>
-      <c r="C54">
         <v>-0.00572252034698717</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>42490</v>
       </c>
       <c r="B55">
-        <v>0.59658308</v>
-      </c>
-      <c r="C55">
         <v>0.01633645439650766</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>42521</v>
       </c>
       <c r="B56">
-        <v>0.6151652999999999</v>
-      </c>
-      <c r="C56">
         <v>0.0116387429083864</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42551</v>
       </c>
       <c r="B57">
-        <v>0.64374632</v>
-      </c>
-      <c r="C57">
         <v>0.01769541482843895</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42582</v>
       </c>
       <c r="B58">
-        <v>0.66815395</v>
-      </c>
-      <c r="C58">
         <v>0.01484878153217717</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42613</v>
       </c>
       <c r="B59">
-        <v>0.6681118100000001</v>
-      </c>
-      <c r="C59">
         <v>-2.526145743320107e-05</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42643</v>
       </c>
       <c r="B60">
-        <v>0.68410529</v>
-      </c>
-      <c r="C60">
         <v>0.009587774574894903</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42674</v>
       </c>
       <c r="B61">
-        <v>0.7202349699999999</v>
-      </c>
-      <c r="C61">
         <v>0.0214533379917119</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42704</v>
       </c>
       <c r="B62">
-        <v>0.7233516099999999</v>
-      </c>
-      <c r="C62">
         <v>0.001811752495648911</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42735</v>
       </c>
       <c r="B63">
-        <v>0.7602443699999999</v>
-      </c>
-      <c r="C63">
         <v>0.0214075640663951</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42766</v>
       </c>
       <c r="B64">
-        <v>0.80630263</v>
-      </c>
-      <c r="C64">
         <v>0.02616583287239838</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42794</v>
       </c>
       <c r="B65">
-        <v>0.85741749</v>
-      </c>
-      <c r="C65">
         <v>0.02829805988822587</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42825</v>
       </c>
       <c r="B66">
-        <v>0.8573423099999999</v>
-      </c>
-      <c r="C66">
         <v>-4.047555296793348e-05</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42855</v>
       </c>
       <c r="B67">
-        <v>0.8774699800000001</v>
-      </c>
-      <c r="C67">
         <v>0.01083681230521272</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42886</v>
       </c>
       <c r="B68">
-        <v>0.8440926</v>
-      </c>
-      <c r="C68">
         <v>-0.01777785016834199</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42916</v>
       </c>
       <c r="B69">
-        <v>0.8624745300000001</v>
-      </c>
-      <c r="C69">
         <v>0.009968008114126237</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>42947</v>
       </c>
       <c r="B70">
-        <v>0.89182582</v>
-      </c>
-      <c r="C70">
         <v>0.01575929739023052</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>42978</v>
       </c>
       <c r="B71">
-        <v>0.9377963300000001</v>
-      </c>
-      <c r="C71">
         <v>0.02429954677328605</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43008</v>
       </c>
       <c r="B72">
-        <v>0.9785110400000001</v>
-      </c>
-      <c r="C72">
         <v>0.02101083037968188</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43039</v>
       </c>
       <c r="B73">
-        <v>0.9990947299999999</v>
-      </c>
-      <c r="C73">
         <v>0.01040362655747407</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43069</v>
       </c>
       <c r="B74">
-        <v>0.9999004</v>
-      </c>
-      <c r="C74">
         <v>0.000403017419789764</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43100</v>
       </c>
       <c r="B75">
-        <v>1.03108049</v>
-      </c>
-      <c r="C75">
         <v>0.0155908214229068</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43131</v>
       </c>
       <c r="B76">
-        <v>1.05757622</v>
-      </c>
-      <c r="C76">
         <v>0.01304514032331627</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43159</v>
       </c>
       <c r="B77">
-        <v>1.09979808</v>
-      </c>
-      <c r="C77">
         <v>0.02052019244273717</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43190</v>
       </c>
       <c r="B78">
-        <v>1.14730697</v>
-      </c>
-      <c r="C78">
         <v>0.02262545644388814</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43220</v>
       </c>
       <c r="B79">
-        <v>1.21679701</v>
-      </c>
-      <c r="C79">
         <v>0.03236148392886751</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43251</v>
       </c>
       <c r="B80">
-        <v>1.19694486</v>
-      </c>
-      <c r="C80">
         <v>-0.008955330555953878</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43281</v>
       </c>
       <c r="B81">
-        <v>1.23708607</v>
-      </c>
-      <c r="C81">
         <v>0.01827137800809453</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>43312</v>
       </c>
       <c r="B82">
-        <v>1.24339428</v>
-      </c>
-      <c r="C82">
         <v>0.002819833391568993</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>43343</v>
       </c>
       <c r="B83">
-        <v>1.2466665</v>
-      </c>
-      <c r="C83">
         <v>0.001458602274763798</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>43373</v>
       </c>
       <c r="B84">
-        <v>1.25226915</v>
-      </c>
-      <c r="C84">
         <v>0.002493761312593712</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>43404</v>
       </c>
       <c r="B85">
-        <v>1.28788298</v>
-      </c>
-      <c r="C85">
         <v>0.01581242188572363</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>43434</v>
       </c>
       <c r="B86">
-        <v>1.32288376</v>
-      </c>
-      <c r="C86">
         <v>0.01529832614078885</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>43465</v>
       </c>
       <c r="B87">
-        <v>1.3586446</v>
-      </c>
-      <c r="C87">
         <v>0.01539501916359343</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>43496</v>
       </c>
       <c r="B88">
-        <v>1.41212394</v>
-      </c>
-      <c r="C88">
         <v>0.02267375932770888</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>43524</v>
       </c>
       <c r="B89">
-        <v>1.41673321</v>
-      </c>
-      <c r="C89">
         <v>0.001910876105313264</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43555</v>
       </c>
       <c r="B90">
-        <v>1.40644832</v>
-      </c>
-      <c r="C90">
         <v>-0.00425569937030823</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43585</v>
       </c>
       <c r="B91">
-        <v>1.41539444</v>
-      </c>
-      <c r="C91">
         <v>0.003717561655344426</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43616</v>
       </c>
       <c r="B92">
-        <v>1.41864735</v>
-      </c>
-      <c r="C92">
         <v>0.001346740700454818</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43646</v>
       </c>
       <c r="B93">
-        <v>1.45981928</v>
-      </c>
-      <c r="C93">
         <v>0.01702270899476099</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43677</v>
       </c>
       <c r="B94">
-        <v>1.52266904</v>
-      </c>
-      <c r="C94">
         <v>0.02555055995820954</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43708</v>
       </c>
       <c r="B95">
-        <v>1.57764447</v>
-      </c>
-      <c r="C95">
         <v>0.02179256538543006</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43738</v>
       </c>
       <c r="B96">
-        <v>1.56630035</v>
-      </c>
-      <c r="C96">
         <v>-0.004400963799324864</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43769</v>
       </c>
       <c r="B97">
-        <v>1.61961504</v>
-      </c>
-      <c r="C97">
         <v>0.02077492215593546</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43799</v>
       </c>
       <c r="B98">
-        <v>1.66180993</v>
-      </c>
-      <c r="C98">
         <v>0.01610728651183813</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43830</v>
       </c>
       <c r="B99">
-        <v>1.76803754</v>
-      </c>
-      <c r="C99">
         <v>0.03990803731053782</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43861</v>
       </c>
       <c r="B100">
-        <v>1.85911498</v>
-      </c>
-      <c r="C100">
         <v>0.0329032531834812</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43890</v>
       </c>
       <c r="B101">
-        <v>1.79148948</v>
-      </c>
-      <c r="C101">
         <v>-0.02365259895913674</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43921</v>
       </c>
       <c r="B102">
-        <v>1.57883726</v>
-      </c>
-      <c r="C102">
         <v>-0.07617876460705852</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>43951</v>
       </c>
       <c r="B103">
-        <v>1.65639169</v>
-      </c>
-      <c r="C103">
         <v>0.03007340990567209</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>43982</v>
       </c>
       <c r="B104">
-        <v>1.69997058</v>
-      </c>
-      <c r="C104">
         <v>0.01640529525975132</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>44012</v>
       </c>
       <c r="B105">
-        <v>1.75176184</v>
-      </c>
-      <c r="C105">
         <v>0.01918215716261606</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>44043</v>
       </c>
       <c r="B106">
-        <v>1.77069931</v>
-      </c>
-      <c r="C106">
         <v>0.006881943678672453</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>44074</v>
       </c>
       <c r="B107">
-        <v>1.79531515</v>
-      </c>
-      <c r="C107">
         <v>0.00888434191005727</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>44104</v>
       </c>
       <c r="B108">
-        <v>1.77534328</v>
-      </c>
-      <c r="C108">
         <v>-0.00714476505448769</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>44135</v>
       </c>
       <c r="B109">
-        <v>1.73332615</v>
-      </c>
-      <c r="C109">
         <v>-0.01513943529176687</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>44165</v>
       </c>
       <c r="B110">
-        <v>1.74887564</v>
-      </c>
-      <c r="C110">
-        <v>0.005688852755460605</v>
+        <v>0.002767243857817681</v>
       </c>
     </row>
   </sheetData>
